--- a/dist/realestate-admin/assets/docx/BD_TowerManagerPerson_Sozu.xlsx
+++ b/dist/realestate-admin/assets/docx/BD_TowerManagerPerson_Sozu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -40,13 +40,16 @@
     <t xml:space="preserve">Company Name</t>
   </si>
   <si>
-    <t xml:space="preserve">a</t>
+    <t xml:space="preserve">Sample</t>
   </si>
   <si>
     <t xml:space="preserve">mx</t>
   </si>
   <si>
-    <t xml:space="preserve">dd@sd.fd</t>
+    <t xml:space="preserve">sample@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Company</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -201,15 +204,18 @@
         <v>52</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>6756757</v>
+        <v>4523654785</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="dd@sd.fd"/>
+    <hyperlink ref="E2" r:id="rId1" display="sample@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
